--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2493234.869309721</v>
+        <v>2491044.559384937</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5853127.363091186</v>
+        <v>5853127.363091182</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.49376734</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>286.0499486797338</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>195.0020332030668</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -789,7 +789,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>41.03250833502995</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686241</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>284.5615160058696</v>
+        <v>384.7320609205416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>49.92693022021933</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>70.82252620963547</v>
       </c>
       <c r="H8" t="n">
-        <v>47.93792996527408</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.1120545023352</v>
+        <v>411.1120545023351</v>
       </c>
       <c r="H11" t="n">
-        <v>296.5569697109303</v>
+        <v>296.5569697109304</v>
       </c>
       <c r="I11" t="n">
-        <v>48.91458271943827</v>
+        <v>48.91458271943856</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.5248804320679</v>
+        <v>113.5248804320681</v>
       </c>
       <c r="T11" t="n">
         <v>204.7511346755999</v>
@@ -1464,10 +1464,10 @@
         <v>135.1013040776357</v>
       </c>
       <c r="H12" t="n">
-        <v>90.58038627844357</v>
+        <v>90.58038627844361</v>
       </c>
       <c r="I12" t="n">
-        <v>12.19762968578604</v>
+        <v>12.19762968578617</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>130.0350464660749</v>
+        <v>130.035046466075</v>
       </c>
       <c r="T12" t="n">
         <v>191.1270364770875</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>39.74963832282474</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.1111832283319</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.352669611447</v>
+        <v>145.5140760050392</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>219.9137332359214</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2164950221203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.1120545023356</v>
+        <v>411.1120545023352</v>
       </c>
       <c r="H14" t="n">
         <v>296.5569697109304</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>117.5603429139625</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.5140760050392</v>
       </c>
       <c r="I16" t="n">
-        <v>98.91987857762595</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>191.2568782055801</v>
+        <v>124.6220016882213</v>
       </c>
       <c r="T16" t="n">
         <v>219.9137332359214</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2164950221203</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1862,7 +1862,7 @@
         <v>296.5569697109304</v>
       </c>
       <c r="I17" t="n">
-        <v>48.91458271943856</v>
+        <v>48.91458271943781</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.5140760050392</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>124.7150296703296</v>
+        <v>191.2568782055801</v>
       </c>
       <c r="T19" t="n">
         <v>219.9137332359214</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2164950221203</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>65.63413315364018</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.8483798215637</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>78.87919948768101</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.30409751132399</v>
+        <v>92.77092174437584</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>191.2568782055801</v>
       </c>
       <c r="T25" t="n">
         <v>219.9137332359214</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>204.6929310953999</v>
       </c>
     </row>
     <row r="26">
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.1111832283319</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.5140760050392</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.77092174437584</v>
       </c>
       <c r="S28" t="n">
         <v>191.2568782055801</v>
       </c>
       <c r="T28" t="n">
-        <v>219.9137332359214</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2164950221203</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>157.4342588491538</v>
       </c>
       <c r="X28" t="n">
-        <v>124.7568746947805</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.1111832283319</v>
       </c>
       <c r="H31" t="n">
-        <v>122.7847775950842</v>
+        <v>3.782295040451402</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.77092174437584</v>
       </c>
       <c r="S31" t="n">
         <v>191.2568782055801</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.9137332359214</v>
       </c>
       <c r="U31" t="n">
         <v>286.2164950221203</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,16 +3187,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>3.427331798631485</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>92.77092174437584</v>
       </c>
       <c r="S34" t="n">
         <v>191.2568782055801</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>114.5402923675967</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3281,7 @@
         <v>411.1120545023352</v>
       </c>
       <c r="H35" t="n">
-        <v>296.5569697109304</v>
+        <v>296.5569697109296</v>
       </c>
       <c r="I35" t="n">
         <v>48.91458271943856</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.18895587911008</v>
+        <v>132.7520565044323</v>
       </c>
       <c r="C37" t="n">
-        <v>120.1668974211234</v>
+        <v>120.1668974211229</v>
       </c>
       <c r="D37" t="n">
-        <v>101.5355493407079</v>
+        <v>101.5355493407074</v>
       </c>
       <c r="E37" t="n">
-        <v>99.35403896906473</v>
+        <v>99.35403896906421</v>
       </c>
       <c r="F37" t="n">
-        <v>98.34112434542681</v>
+        <v>98.34112434542628</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0312595508275</v>
+        <v>119.031259550827</v>
       </c>
       <c r="H37" t="n">
-        <v>98.43415232753475</v>
+        <v>98.43415232753422</v>
       </c>
       <c r="I37" t="n">
-        <v>51.8399549001215</v>
+        <v>51.83995490012099</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.6909980668714</v>
+        <v>45.69099806687088</v>
       </c>
       <c r="S37" t="n">
-        <v>144.1769545280757</v>
+        <v>144.1769545280752</v>
       </c>
       <c r="T37" t="n">
-        <v>172.833809558417</v>
+        <v>172.8338095584164</v>
       </c>
       <c r="U37" t="n">
-        <v>239.1365713446159</v>
+        <v>239.1365713446154</v>
       </c>
       <c r="V37" t="n">
-        <v>205.0577196463236</v>
+        <v>205.0577196463231</v>
       </c>
       <c r="W37" t="n">
-        <v>239.4430746590866</v>
+        <v>239.4430746590861</v>
       </c>
       <c r="X37" t="n">
-        <v>178.6297317115327</v>
+        <v>178.6297317115322</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.5047296745904</v>
+        <v>81.94162904928054</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>296.5569697109304</v>
       </c>
       <c r="I38" t="n">
-        <v>48.91458271943781</v>
+        <v>48.91458271943856</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>113.5248804320681</v>
       </c>
       <c r="T38" t="n">
-        <v>204.7511346755999</v>
+        <v>204.7511346755991</v>
       </c>
       <c r="U38" t="n">
         <v>251.0103982668125</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.7520565044329</v>
+        <v>132.7520565044323</v>
       </c>
       <c r="C40" t="n">
-        <v>120.1668974211234</v>
+        <v>120.1668974211229</v>
       </c>
       <c r="D40" t="n">
-        <v>101.5355493407079</v>
+        <v>11.97244871539812</v>
       </c>
       <c r="E40" t="n">
-        <v>9.790938343741956</v>
+        <v>99.35403896906421</v>
       </c>
       <c r="F40" t="n">
-        <v>98.34112434542681</v>
+        <v>98.34112434542628</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0312595508275</v>
+        <v>119.031259550827</v>
       </c>
       <c r="H40" t="n">
-        <v>98.43415232753475</v>
+        <v>98.43415232753422</v>
       </c>
       <c r="I40" t="n">
-        <v>51.83995490012151</v>
+        <v>51.83995490012099</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.6909980668714</v>
+        <v>45.69099806687088</v>
       </c>
       <c r="S40" t="n">
-        <v>144.1769545280757</v>
+        <v>144.1769545280752</v>
       </c>
       <c r="T40" t="n">
-        <v>172.833809558417</v>
+        <v>172.8338095584164</v>
       </c>
       <c r="U40" t="n">
-        <v>239.1365713446159</v>
+        <v>239.1365713446154</v>
       </c>
       <c r="V40" t="n">
-        <v>205.0577196463236</v>
+        <v>205.0577196463231</v>
       </c>
       <c r="W40" t="n">
-        <v>239.4430746590866</v>
+        <v>239.4430746590861</v>
       </c>
       <c r="X40" t="n">
-        <v>178.6297317115327</v>
+        <v>178.6297317115322</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.5047296745904</v>
+        <v>171.5047296745898</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>113.5248804320681</v>
+        <v>113.5248804320675</v>
       </c>
       <c r="T41" t="n">
         <v>204.7511346755999</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.7520565044329</v>
+        <v>132.7520565044323</v>
       </c>
       <c r="C43" t="n">
-        <v>120.1668974211234</v>
+        <v>30.60379679581338</v>
       </c>
       <c r="D43" t="n">
-        <v>101.5355493407079</v>
+        <v>101.5355493407074</v>
       </c>
       <c r="E43" t="n">
-        <v>9.790938343742377</v>
+        <v>99.35403896906421</v>
       </c>
       <c r="F43" t="n">
-        <v>98.34112434542681</v>
+        <v>98.34112434542628</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0312595508275</v>
+        <v>119.031259550827</v>
       </c>
       <c r="H43" t="n">
-        <v>98.43415232753475</v>
+        <v>98.43415232753422</v>
       </c>
       <c r="I43" t="n">
-        <v>51.83995490012151</v>
+        <v>51.83995490012099</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>45.6909980668714</v>
+        <v>45.69099806687088</v>
       </c>
       <c r="S43" t="n">
-        <v>144.1769545280757</v>
+        <v>144.1769545280752</v>
       </c>
       <c r="T43" t="n">
-        <v>172.833809558417</v>
+        <v>172.8338095584164</v>
       </c>
       <c r="U43" t="n">
-        <v>239.1365713446159</v>
+        <v>239.1365713446154</v>
       </c>
       <c r="V43" t="n">
-        <v>205.0577196463236</v>
+        <v>205.0577196463231</v>
       </c>
       <c r="W43" t="n">
-        <v>239.4430746590866</v>
+        <v>239.4430746590861</v>
       </c>
       <c r="X43" t="n">
-        <v>178.6297317115327</v>
+        <v>178.6297317115322</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.5047296745904</v>
+        <v>171.5047296745898</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.7520565044329</v>
+        <v>132.7520565044323</v>
       </c>
       <c r="C46" t="n">
-        <v>120.1668974211234</v>
+        <v>120.1668974211229</v>
       </c>
       <c r="D46" t="n">
-        <v>101.5355493407079</v>
+        <v>101.5355493407074</v>
       </c>
       <c r="E46" t="n">
-        <v>99.35403896906473</v>
+        <v>99.35403896906421</v>
       </c>
       <c r="F46" t="n">
-        <v>98.34112434542681</v>
+        <v>98.34112434542628</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0312595508275</v>
+        <v>119.031259550827</v>
       </c>
       <c r="H46" t="n">
-        <v>98.43415232753475</v>
+        <v>98.43415232753422</v>
       </c>
       <c r="I46" t="n">
-        <v>51.83995490012151</v>
+        <v>51.83995490012099</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>45.6909980668714</v>
+        <v>45.69099806687088</v>
       </c>
       <c r="S46" t="n">
-        <v>144.1769545280757</v>
+        <v>144.1769545280752</v>
       </c>
       <c r="T46" t="n">
-        <v>83.27070893309478</v>
+        <v>172.8338095584164</v>
       </c>
       <c r="U46" t="n">
-        <v>239.1365713446159</v>
+        <v>239.1365713446154</v>
       </c>
       <c r="V46" t="n">
-        <v>205.0577196463236</v>
+        <v>205.0577196463231</v>
       </c>
       <c r="W46" t="n">
-        <v>239.4430746590866</v>
+        <v>239.4430746590861</v>
       </c>
       <c r="X46" t="n">
-        <v>178.6297317115327</v>
+        <v>178.6297317115322</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.5047296745904</v>
+        <v>81.94162904927967</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1528.349585887292</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C2" t="n">
-        <v>1528.349585887292</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1528.349585887292</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E2" t="n">
-        <v>1142.561333289048</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F2" t="n">
-        <v>731.5754284994405</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1528.349585887292</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,19 +4437,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4531,7 +4531,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633757</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="F5" t="n">
-        <v>341.3788565737681</v>
+        <v>442.5612251744469</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>677.697741559748</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4765,10 +4765,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1470.569074795015</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C8" t="n">
-        <v>1470.569074795015</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D8" t="n">
-        <v>1470.569074795015</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="E8" t="n">
-        <v>1084.78082219677</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="F8" t="n">
-        <v>673.7949174071628</v>
+        <v>606.14158305153</v>
       </c>
       <c r="G8" t="n">
-        <v>255.8311093053496</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859136</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2384.091534291454</v>
+        <v>2384.091534291453</v>
       </c>
       <c r="C11" t="n">
         <v>2015.129017351042</v>
@@ -5027,64 +5027,64 @@
         <v>1271.075066146047</v>
       </c>
       <c r="F11" t="n">
-        <v>860.0891613564397</v>
+        <v>860.0891613564399</v>
       </c>
       <c r="G11" t="n">
-        <v>444.8244598389293</v>
+        <v>444.8244598389297</v>
       </c>
       <c r="H11" t="n">
-        <v>145.2719651814239</v>
+        <v>145.2719651814243</v>
       </c>
       <c r="I11" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J11" t="n">
-        <v>268.7500428204786</v>
+        <v>268.750042820478</v>
       </c>
       <c r="K11" t="n">
-        <v>578.6009786324969</v>
+        <v>578.6009786324953</v>
       </c>
       <c r="L11" t="n">
-        <v>1413.384827664149</v>
+        <v>1413.384827664147</v>
       </c>
       <c r="M11" t="n">
-        <v>2358.849250812638</v>
+        <v>2358.849250812634</v>
       </c>
       <c r="N11" t="n">
-        <v>3304.980279234479</v>
+        <v>3304.980279234474</v>
       </c>
       <c r="O11" t="n">
-        <v>4150.366852682191</v>
+        <v>4150.366852682194</v>
       </c>
       <c r="P11" t="n">
-        <v>4518.04538792292</v>
+        <v>4518.045387922922</v>
       </c>
       <c r="Q11" t="n">
-        <v>4745.983908943724</v>
+        <v>4745.983908943725</v>
       </c>
       <c r="R11" t="n">
         <v>4793.164788392496</v>
       </c>
       <c r="S11" t="n">
-        <v>4678.493191996468</v>
+        <v>4678.493191996467</v>
       </c>
       <c r="T11" t="n">
-        <v>4471.673864041317</v>
+        <v>4471.673864041316</v>
       </c>
       <c r="U11" t="n">
-        <v>4218.128007206153</v>
+        <v>4218.128007206152</v>
       </c>
       <c r="V11" t="n">
-        <v>3887.065119862582</v>
+        <v>3887.065119862581</v>
       </c>
       <c r="W11" t="n">
-        <v>3534.296464592468</v>
+        <v>3534.296464592467</v>
       </c>
       <c r="X11" t="n">
         <v>3160.830706331387</v>
       </c>
       <c r="Y11" t="n">
-        <v>2770.691374355576</v>
+        <v>2770.691374355575</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>965.3048891452282</v>
+        <v>965.3048891452285</v>
       </c>
       <c r="C12" t="n">
-        <v>790.8518598641012</v>
+        <v>790.8518598641015</v>
       </c>
       <c r="D12" t="n">
-        <v>641.91745020285</v>
+        <v>641.9174502028502</v>
       </c>
       <c r="E12" t="n">
-        <v>482.6799951973945</v>
+        <v>482.6799951973948</v>
       </c>
       <c r="F12" t="n">
-        <v>336.1454372242795</v>
+        <v>336.1454372242797</v>
       </c>
       <c r="G12" t="n">
-        <v>199.679473509496</v>
+        <v>199.6794735094962</v>
       </c>
       <c r="H12" t="n">
-        <v>108.1841338343005</v>
+        <v>108.1841338343006</v>
       </c>
       <c r="I12" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J12" t="n">
-        <v>304.8457359496198</v>
+        <v>304.8457359496195</v>
       </c>
       <c r="K12" t="n">
-        <v>526.8302709259566</v>
+        <v>554.1651461946152</v>
       </c>
       <c r="L12" t="n">
-        <v>871.6384139499094</v>
+        <v>898.9732892185671</v>
       </c>
       <c r="M12" t="n">
-        <v>1293.370121481711</v>
+        <v>1320.704996750367</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.672457325765</v>
+        <v>1768.00733259442</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.646911819857</v>
+        <v>2154.981787088511</v>
       </c>
       <c r="P12" t="n">
-        <v>2418.894961578638</v>
+        <v>2446.229836847292</v>
       </c>
       <c r="Q12" t="n">
         <v>2591.002248686989</v>
@@ -5154,7 +5154,7 @@
         <v>2038.521490095727</v>
       </c>
       <c r="V12" t="n">
-        <v>1803.369381863984</v>
+        <v>1803.369381863985</v>
       </c>
       <c r="W12" t="n">
         <v>1549.132025135783</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396.3318339898489</v>
+        <v>282.9983607454902</v>
       </c>
       <c r="C13" t="n">
-        <v>396.3318339898489</v>
+        <v>282.9983607454902</v>
       </c>
       <c r="D13" t="n">
-        <v>396.3318339898489</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="E13" t="n">
-        <v>396.3318339898489</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="F13" t="n">
-        <v>396.3318339898489</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="G13" t="n">
-        <v>228.5427600218368</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="H13" t="n">
         <v>95.86329576784992</v>
@@ -5197,52 +5197,52 @@
         <v>95.86329576784992</v>
       </c>
       <c r="J13" t="n">
-        <v>135.0102779883113</v>
+        <v>135.010277988311</v>
       </c>
       <c r="K13" t="n">
-        <v>329.1776319678753</v>
+        <v>329.177631967875</v>
       </c>
       <c r="L13" t="n">
-        <v>633.1714301844365</v>
+        <v>633.1714301844356</v>
       </c>
       <c r="M13" t="n">
-        <v>964.0793904226516</v>
+        <v>964.0793904226502</v>
       </c>
       <c r="N13" t="n">
-        <v>1292.553715403913</v>
+        <v>1292.553715403911</v>
       </c>
       <c r="O13" t="n">
-        <v>1579.936624119721</v>
+        <v>1579.936624119718</v>
       </c>
       <c r="P13" t="n">
-        <v>1802.321667228832</v>
+        <v>1802.321667228829</v>
       </c>
       <c r="Q13" t="n">
-        <v>1872.854463801038</v>
+        <v>1872.854463801036</v>
       </c>
       <c r="R13" t="n">
-        <v>1872.854463801038</v>
+        <v>1872.854463801036</v>
       </c>
       <c r="S13" t="n">
-        <v>1679.665697936816</v>
+        <v>1679.665697936813</v>
       </c>
       <c r="T13" t="n">
-        <v>1457.530613860128</v>
+        <v>1457.530613860125</v>
       </c>
       <c r="U13" t="n">
-        <v>1168.423043130714</v>
+        <v>1457.530613860125</v>
       </c>
       <c r="V13" t="n">
-        <v>913.7385549248268</v>
+        <v>1202.846125654238</v>
       </c>
       <c r="W13" t="n">
-        <v>624.3213848878662</v>
+        <v>913.4289556172774</v>
       </c>
       <c r="X13" t="n">
-        <v>396.3318339898489</v>
+        <v>685.4394047192601</v>
       </c>
       <c r="Y13" t="n">
-        <v>396.3318339898489</v>
+        <v>464.64682557573</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2384.091534291454</v>
       </c>
       <c r="C14" t="n">
-        <v>2015.129017351042</v>
+        <v>2015.129017351043</v>
       </c>
       <c r="D14" t="n">
         <v>1656.863318744292</v>
       </c>
       <c r="E14" t="n">
-        <v>1271.075066146048</v>
+        <v>1271.075066146047</v>
       </c>
       <c r="F14" t="n">
-        <v>860.0891613564402</v>
+        <v>860.0891613564398</v>
       </c>
       <c r="G14" t="n">
         <v>444.8244598389297</v>
       </c>
       <c r="H14" t="n">
-        <v>145.2719651814243</v>
+        <v>145.2719651814242</v>
       </c>
       <c r="I14" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J14" t="n">
-        <v>268.750042820478</v>
+        <v>436.155691840831</v>
       </c>
       <c r="K14" t="n">
-        <v>578.6009786324953</v>
+        <v>1066.910586098302</v>
       </c>
       <c r="L14" t="n">
-        <v>1413.384827664147</v>
+        <v>1901.694435129953</v>
       </c>
       <c r="M14" t="n">
-        <v>2358.849250812634</v>
+        <v>2402.140460120537</v>
       </c>
       <c r="N14" t="n">
-        <v>3304.980279234474</v>
+        <v>2915.298033374512</v>
       </c>
       <c r="O14" t="n">
-        <v>4150.366852682194</v>
+        <v>3763.515096565317</v>
       </c>
       <c r="P14" t="n">
-        <v>4518.045387922922</v>
+        <v>4449.774352895812</v>
       </c>
       <c r="Q14" t="n">
-        <v>4745.983908943725</v>
+        <v>4680.924653269471</v>
       </c>
       <c r="R14" t="n">
         <v>4793.164788392496</v>
@@ -5309,19 +5309,19 @@
         <v>4471.673864041316</v>
       </c>
       <c r="U14" t="n">
-        <v>4218.128007206152</v>
+        <v>4218.128007206153</v>
       </c>
       <c r="V14" t="n">
-        <v>3887.065119862581</v>
+        <v>3887.065119862582</v>
       </c>
       <c r="W14" t="n">
-        <v>3534.296464592467</v>
+        <v>3534.296464592468</v>
       </c>
       <c r="X14" t="n">
-        <v>3160.830706331387</v>
+        <v>3160.830706331388</v>
       </c>
       <c r="Y14" t="n">
-        <v>2770.691374355575</v>
+        <v>2770.691374355576</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>464.6468255757294</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="C16" t="n">
-        <v>464.6468255757294</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="D16" t="n">
-        <v>314.5301861633937</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="E16" t="n">
-        <v>314.5301861633937</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="F16" t="n">
-        <v>314.5301861633937</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="G16" t="n">
-        <v>195.7823650381791</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="H16" t="n">
-        <v>195.7823650381791</v>
+        <v>95.86329576784992</v>
       </c>
       <c r="I16" t="n">
         <v>95.86329576784992</v>
@@ -5437,7 +5437,7 @@
         <v>135.0102779883111</v>
       </c>
       <c r="K16" t="n">
-        <v>329.177631967875</v>
+        <v>329.1776319678751</v>
       </c>
       <c r="L16" t="n">
         <v>633.1714301844356</v>
@@ -5455,31 +5455,31 @@
         <v>1802.321667228829</v>
       </c>
       <c r="Q16" t="n">
-        <v>1872.854463801035</v>
+        <v>1872.854463801036</v>
       </c>
       <c r="R16" t="n">
-        <v>1872.854463801035</v>
+        <v>1872.854463801036</v>
       </c>
       <c r="S16" t="n">
-        <v>1679.665697936813</v>
+        <v>1746.973654014953</v>
       </c>
       <c r="T16" t="n">
-        <v>1457.530613860125</v>
+        <v>1524.838569938265</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.530613860125</v>
+        <v>1235.730999208851</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.846125654238</v>
+        <v>981.0465110029631</v>
       </c>
       <c r="W16" t="n">
-        <v>913.4289556172769</v>
+        <v>691.6293409660026</v>
       </c>
       <c r="X16" t="n">
-        <v>685.4394047192595</v>
+        <v>463.6397900679852</v>
       </c>
       <c r="Y16" t="n">
-        <v>464.6468255757294</v>
+        <v>242.8472109244552</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2015.129017351042</v>
       </c>
       <c r="D17" t="n">
-        <v>1656.863318744292</v>
+        <v>1656.863318744291</v>
       </c>
       <c r="E17" t="n">
         <v>1271.075066146047</v>
       </c>
       <c r="F17" t="n">
-        <v>860.0891613564399</v>
+        <v>860.0891613564393</v>
       </c>
       <c r="G17" t="n">
-        <v>444.8244598389296</v>
+        <v>444.8244598389289</v>
       </c>
       <c r="H17" t="n">
-        <v>145.2719651814241</v>
+        <v>145.2719651814235</v>
       </c>
       <c r="I17" t="n">
         <v>95.86329576784992</v>
@@ -5519,13 +5519,13 @@
         <v>578.6009786324953</v>
       </c>
       <c r="L17" t="n">
-        <v>1413.384827664147</v>
+        <v>1410.554337921062</v>
       </c>
       <c r="M17" t="n">
-        <v>2358.849250812634</v>
+        <v>2356.018761069549</v>
       </c>
       <c r="N17" t="n">
-        <v>3304.980279234474</v>
+        <v>3302.149789491389</v>
       </c>
       <c r="O17" t="n">
         <v>4150.366852682194</v>
@@ -5595,19 +5595,19 @@
         <v>304.8457359496195</v>
       </c>
       <c r="K18" t="n">
-        <v>526.8302709259556</v>
+        <v>554.1651461946152</v>
       </c>
       <c r="L18" t="n">
-        <v>871.6384139499074</v>
+        <v>898.9732892185671</v>
       </c>
       <c r="M18" t="n">
-        <v>1293.370121481708</v>
+        <v>1320.704996750367</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.672457325761</v>
+        <v>1768.00733259442</v>
       </c>
       <c r="O18" t="n">
-        <v>2127.646911819852</v>
+        <v>2154.981787088511</v>
       </c>
       <c r="P18" t="n">
         <v>2446.229836847292</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>242.7532432657603</v>
+        <v>687.7668914170944</v>
       </c>
       <c r="C19" t="n">
-        <v>242.7532432657603</v>
+        <v>687.7668914170944</v>
       </c>
       <c r="D19" t="n">
-        <v>242.7532432657603</v>
+        <v>537.6502520047586</v>
       </c>
       <c r="E19" t="n">
-        <v>242.7532432657603</v>
+        <v>389.7371584223655</v>
       </c>
       <c r="F19" t="n">
-        <v>95.86329576784992</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="G19" t="n">
-        <v>95.86329576784992</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="H19" t="n">
         <v>95.86329576784992</v>
@@ -5671,10 +5671,10 @@
         <v>95.86329576784992</v>
       </c>
       <c r="J19" t="n">
-        <v>135.010277988311</v>
+        <v>135.0102779883111</v>
       </c>
       <c r="K19" t="n">
-        <v>329.177631967875</v>
+        <v>329.1776319678751</v>
       </c>
       <c r="L19" t="n">
         <v>633.1714301844356</v>
@@ -5692,31 +5692,31 @@
         <v>1802.321667228829</v>
       </c>
       <c r="Q19" t="n">
-        <v>1872.854463801035</v>
+        <v>1872.854463801036</v>
       </c>
       <c r="R19" t="n">
-        <v>1872.854463801035</v>
+        <v>1872.854463801036</v>
       </c>
       <c r="S19" t="n">
-        <v>1746.879686356258</v>
+        <v>1679.665697936813</v>
       </c>
       <c r="T19" t="n">
-        <v>1524.74460227957</v>
+        <v>1457.530613860125</v>
       </c>
       <c r="U19" t="n">
-        <v>1235.637031550155</v>
+        <v>1457.530613860125</v>
       </c>
       <c r="V19" t="n">
-        <v>980.9525433442683</v>
+        <v>1202.846125654238</v>
       </c>
       <c r="W19" t="n">
-        <v>691.5353733073077</v>
+        <v>1136.549021458642</v>
       </c>
       <c r="X19" t="n">
-        <v>463.5458224092904</v>
+        <v>908.5594705606245</v>
       </c>
       <c r="Y19" t="n">
-        <v>242.7532432657603</v>
+        <v>687.7668914170944</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2384.091534291453</v>
+        <v>2384.091534291452</v>
       </c>
       <c r="C20" t="n">
-        <v>2015.129017351042</v>
+        <v>2015.129017351041</v>
       </c>
       <c r="D20" t="n">
-        <v>1656.863318744292</v>
+        <v>1656.863318744291</v>
       </c>
       <c r="E20" t="n">
         <v>1271.075066146047</v>
       </c>
       <c r="F20" t="n">
-        <v>860.0891613564398</v>
+        <v>860.089161356439</v>
       </c>
       <c r="G20" t="n">
-        <v>444.8244598389296</v>
+        <v>444.8244598389292</v>
       </c>
       <c r="H20" t="n">
         <v>145.2719651814241</v>
@@ -5756,13 +5756,13 @@
         <v>578.6009786324953</v>
       </c>
       <c r="L20" t="n">
-        <v>1413.384827664147</v>
+        <v>1410.554337921062</v>
       </c>
       <c r="M20" t="n">
-        <v>2358.849250812634</v>
+        <v>2356.018761069549</v>
       </c>
       <c r="N20" t="n">
-        <v>3304.980279234474</v>
+        <v>3302.149789491389</v>
       </c>
       <c r="O20" t="n">
         <v>4150.366852682194</v>
@@ -5780,22 +5780,22 @@
         <v>4678.493191996467</v>
       </c>
       <c r="T20" t="n">
-        <v>4471.673864041317</v>
+        <v>4471.673864041315</v>
       </c>
       <c r="U20" t="n">
-        <v>4218.128007206152</v>
+        <v>4218.128007206151</v>
       </c>
       <c r="V20" t="n">
-        <v>3887.065119862581</v>
+        <v>3887.06511986258</v>
       </c>
       <c r="W20" t="n">
-        <v>3534.296464592467</v>
+        <v>3534.296464592466</v>
       </c>
       <c r="X20" t="n">
-        <v>3160.830706331387</v>
+        <v>3160.830706331386</v>
       </c>
       <c r="Y20" t="n">
-        <v>2770.691374355575</v>
+        <v>2770.691374355574</v>
       </c>
     </row>
     <row r="21">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.9799351801856</v>
+        <v>175.5392548463155</v>
       </c>
       <c r="C22" t="n">
-        <v>245.9799351801856</v>
+        <v>175.5392548463155</v>
       </c>
       <c r="D22" t="n">
-        <v>95.86329576784992</v>
+        <v>175.5392548463155</v>
       </c>
       <c r="E22" t="n">
         <v>95.86329576784992</v>
@@ -5908,7 +5908,7 @@
         <v>95.86329576784992</v>
       </c>
       <c r="J22" t="n">
-        <v>135.0102779883111</v>
+        <v>135.010277988311</v>
       </c>
       <c r="K22" t="n">
         <v>329.177631967875</v>
@@ -5944,16 +5944,16 @@
         <v>1168.423043130711</v>
       </c>
       <c r="V22" t="n">
-        <v>913.7385549248237</v>
+        <v>913.7385549248236</v>
       </c>
       <c r="W22" t="n">
-        <v>624.3213848878631</v>
+        <v>624.3213848878629</v>
       </c>
       <c r="X22" t="n">
-        <v>396.3318339898459</v>
+        <v>396.3318339898456</v>
       </c>
       <c r="Y22" t="n">
-        <v>396.3318339898459</v>
+        <v>175.5392548463155</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2384.091534291453</v>
+        <v>2384.091534291454</v>
       </c>
       <c r="C23" t="n">
         <v>2015.129017351042</v>
@@ -5975,64 +5975,64 @@
         <v>1271.075066146047</v>
       </c>
       <c r="F23" t="n">
-        <v>860.0891613564398</v>
+        <v>860.0891613564399</v>
       </c>
       <c r="G23" t="n">
-        <v>444.8244598389296</v>
+        <v>444.8244598389297</v>
       </c>
       <c r="H23" t="n">
-        <v>145.2719651814241</v>
+        <v>145.2719651814242</v>
       </c>
       <c r="I23" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J23" t="n">
-        <v>322.0077740820577</v>
+        <v>436.155691840831</v>
       </c>
       <c r="K23" t="n">
-        <v>952.7626683395282</v>
+        <v>746.0066276528484</v>
       </c>
       <c r="L23" t="n">
-        <v>1787.54651737118</v>
+        <v>1167.305874279554</v>
       </c>
       <c r="M23" t="n">
-        <v>2733.010940519667</v>
+        <v>2112.770297428041</v>
       </c>
       <c r="N23" t="n">
-        <v>3679.141968941507</v>
+        <v>3058.901325849881</v>
       </c>
       <c r="O23" t="n">
-        <v>4150.366852682194</v>
+        <v>3556.535035164868</v>
       </c>
       <c r="P23" t="n">
-        <v>4518.045387922922</v>
+        <v>4242.794291495364</v>
       </c>
       <c r="Q23" t="n">
-        <v>4745.983908943725</v>
+        <v>4680.924653269472</v>
       </c>
       <c r="R23" t="n">
-        <v>4793.164788392496</v>
+        <v>4793.164788392497</v>
       </c>
       <c r="S23" t="n">
-        <v>4678.493191996467</v>
+        <v>4678.493191996468</v>
       </c>
       <c r="T23" t="n">
         <v>4471.673864041317</v>
       </c>
       <c r="U23" t="n">
-        <v>4218.128007206152</v>
+        <v>4218.128007206153</v>
       </c>
       <c r="V23" t="n">
-        <v>3887.065119862581</v>
+        <v>3887.065119862582</v>
       </c>
       <c r="W23" t="n">
-        <v>3534.296464592467</v>
+        <v>3534.296464592468</v>
       </c>
       <c r="X23" t="n">
-        <v>3160.830706331387</v>
+        <v>3160.830706331388</v>
       </c>
       <c r="Y23" t="n">
-        <v>2770.691374355575</v>
+        <v>2770.691374355576</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>95.86329576784992</v>
       </c>
       <c r="J24" t="n">
-        <v>304.8457359496195</v>
+        <v>180.0156109626147</v>
       </c>
       <c r="K24" t="n">
-        <v>526.8302709259556</v>
+        <v>402.0001459389509</v>
       </c>
       <c r="L24" t="n">
-        <v>871.6384139499074</v>
+        <v>746.8082889629027</v>
       </c>
       <c r="M24" t="n">
-        <v>1293.370121481708</v>
+        <v>1168.539996494703</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.672457325761</v>
+        <v>1615.842332338756</v>
       </c>
       <c r="O24" t="n">
-        <v>2154.981787088511</v>
+        <v>2002.816786832847</v>
       </c>
       <c r="P24" t="n">
-        <v>2446.229836847292</v>
+        <v>2294.064836591628</v>
       </c>
       <c r="Q24" t="n">
         <v>2591.002248686989</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.86329576784992</v>
+        <v>95.86329576784988</v>
       </c>
       <c r="C25" t="n">
-        <v>95.86329576784992</v>
+        <v>95.86329576784988</v>
       </c>
       <c r="D25" t="n">
-        <v>95.86329576784992</v>
+        <v>95.86329576784988</v>
       </c>
       <c r="E25" t="n">
         <v>95.86329576784992</v>
@@ -6148,7 +6148,7 @@
         <v>135.0102779883111</v>
       </c>
       <c r="K25" t="n">
-        <v>329.177631967875</v>
+        <v>329.1776319678751</v>
       </c>
       <c r="L25" t="n">
         <v>633.1714301844356</v>
@@ -6169,28 +6169,28 @@
         <v>1872.854463801036</v>
       </c>
       <c r="R25" t="n">
-        <v>1781.638203688587</v>
+        <v>1779.14646203904</v>
       </c>
       <c r="S25" t="n">
-        <v>1781.638203688587</v>
+        <v>1585.957696174817</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.503119611899</v>
+        <v>1363.822612098129</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.395548882484</v>
+        <v>1074.715041368715</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.711060676598</v>
+        <v>820.0305531628277</v>
       </c>
       <c r="W25" t="n">
-        <v>726.293890639637</v>
+        <v>530.6133831258671</v>
       </c>
       <c r="X25" t="n">
-        <v>498.3043397416196</v>
+        <v>302.6238322278498</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.5117605980895</v>
+        <v>95.86329576784988</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>860.0891613564399</v>
       </c>
       <c r="G26" t="n">
-        <v>444.8244598389297</v>
+        <v>444.8244598389292</v>
       </c>
       <c r="H26" t="n">
-        <v>145.2719651814242</v>
+        <v>145.2719651814243</v>
       </c>
       <c r="I26" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J26" t="n">
-        <v>436.155691840831</v>
+        <v>322.0077740820577</v>
       </c>
       <c r="K26" t="n">
-        <v>1066.910586098302</v>
+        <v>952.7626683395282</v>
       </c>
       <c r="L26" t="n">
-        <v>1694.714373729504</v>
+        <v>1787.54651737118</v>
       </c>
       <c r="M26" t="n">
-        <v>2195.160398720087</v>
+        <v>2733.010940519667</v>
       </c>
       <c r="N26" t="n">
-        <v>2708.317971974062</v>
+        <v>3679.141968941507</v>
       </c>
       <c r="O26" t="n">
-        <v>3556.535035164867</v>
+        <v>4150.366852682194</v>
       </c>
       <c r="P26" t="n">
-        <v>4242.794291495363</v>
+        <v>4518.045387922922</v>
       </c>
       <c r="Q26" t="n">
-        <v>4680.924653269471</v>
+        <v>4745.983908943725</v>
       </c>
       <c r="R26" t="n">
         <v>4793.164788392496</v>
@@ -6309,19 +6309,19 @@
         <v>526.8302709259556</v>
       </c>
       <c r="L27" t="n">
-        <v>871.6384139499074</v>
+        <v>898.9732892185671</v>
       </c>
       <c r="M27" t="n">
-        <v>1293.370121481708</v>
+        <v>1320.704996750367</v>
       </c>
       <c r="N27" t="n">
-        <v>1740.672457325761</v>
+        <v>1768.00733259442</v>
       </c>
       <c r="O27" t="n">
-        <v>2127.646911819852</v>
+        <v>2154.981787088511</v>
       </c>
       <c r="P27" t="n">
-        <v>2418.894961578633</v>
+        <v>2446.229836847292</v>
       </c>
       <c r="Q27" t="n">
         <v>2591.002248686989</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.86329576784993</v>
+        <v>1024.492148313013</v>
       </c>
       <c r="C28" t="n">
-        <v>95.86329576784992</v>
+        <v>855.5559653851064</v>
       </c>
       <c r="D28" t="n">
-        <v>95.86329576784992</v>
+        <v>705.4393259727707</v>
       </c>
       <c r="E28" t="n">
-        <v>95.86329576784992</v>
+        <v>557.5262323903776</v>
       </c>
       <c r="F28" t="n">
-        <v>95.86329576784992</v>
+        <v>410.6362848924672</v>
       </c>
       <c r="G28" t="n">
-        <v>95.86329576784992</v>
+        <v>242.8472109244552</v>
       </c>
       <c r="H28" t="n">
         <v>95.86329576784992</v>
@@ -6385,10 +6385,10 @@
         <v>135.0102779883111</v>
       </c>
       <c r="K28" t="n">
-        <v>329.177631967875</v>
+        <v>329.1776319678751</v>
       </c>
       <c r="L28" t="n">
-        <v>633.1714301844357</v>
+        <v>633.1714301844356</v>
       </c>
       <c r="M28" t="n">
         <v>964.0793904226502</v>
@@ -6406,28 +6406,28 @@
         <v>1872.854463801036</v>
       </c>
       <c r="R28" t="n">
-        <v>1872.854463801036</v>
+        <v>1779.14646203904</v>
       </c>
       <c r="S28" t="n">
-        <v>1679.665697936814</v>
+        <v>1585.957696174817</v>
       </c>
       <c r="T28" t="n">
-        <v>1457.530613860125</v>
+        <v>1585.957696174817</v>
       </c>
       <c r="U28" t="n">
-        <v>1168.42304313071</v>
+        <v>1585.957696174817</v>
       </c>
       <c r="V28" t="n">
-        <v>913.7385549248232</v>
+        <v>1585.957696174817</v>
       </c>
       <c r="W28" t="n">
-        <v>624.3213848878627</v>
+        <v>1426.933192286783</v>
       </c>
       <c r="X28" t="n">
-        <v>498.3043397416197</v>
+        <v>1426.933192286783</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.5117605980896</v>
+        <v>1206.140613143253</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2384.091534291452</v>
+        <v>2384.091534291453</v>
       </c>
       <c r="C29" t="n">
-        <v>2015.129017351041</v>
+        <v>2015.129017351042</v>
       </c>
       <c r="D29" t="n">
-        <v>1656.863318744291</v>
+        <v>1656.863318744292</v>
       </c>
       <c r="E29" t="n">
         <v>1271.075066146047</v>
       </c>
       <c r="F29" t="n">
-        <v>860.089161356439</v>
+        <v>860.0891613564399</v>
       </c>
       <c r="G29" t="n">
         <v>444.8244598389292</v>
       </c>
       <c r="H29" t="n">
-        <v>145.2719651814241</v>
+        <v>145.2719651814243</v>
       </c>
       <c r="I29" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J29" t="n">
-        <v>436.155691840831</v>
+        <v>268.750042820478</v>
       </c>
       <c r="K29" t="n">
-        <v>1066.910586098302</v>
+        <v>578.6009786324953</v>
       </c>
       <c r="L29" t="n">
-        <v>1488.209832725007</v>
+        <v>1410.554337921062</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.655857715591</v>
+        <v>2356.018761069549</v>
       </c>
       <c r="N29" t="n">
-        <v>2708.317971974062</v>
+        <v>3302.149789491389</v>
       </c>
       <c r="O29" t="n">
-        <v>3556.535035164867</v>
+        <v>4150.366852682194</v>
       </c>
       <c r="P29" t="n">
-        <v>4242.794291495363</v>
+        <v>4518.045387922922</v>
       </c>
       <c r="Q29" t="n">
-        <v>4680.924653269471</v>
+        <v>4745.983908943725</v>
       </c>
       <c r="R29" t="n">
         <v>4793.164788392496</v>
@@ -6491,22 +6491,22 @@
         <v>4678.493191996467</v>
       </c>
       <c r="T29" t="n">
-        <v>4471.673864041315</v>
+        <v>4471.673864041316</v>
       </c>
       <c r="U29" t="n">
-        <v>4218.128007206151</v>
+        <v>4218.128007206152</v>
       </c>
       <c r="V29" t="n">
-        <v>3887.06511986258</v>
+        <v>3887.065119862581</v>
       </c>
       <c r="W29" t="n">
-        <v>3534.296464592466</v>
+        <v>3534.296464592467</v>
       </c>
       <c r="X29" t="n">
-        <v>3160.830706331386</v>
+        <v>3160.830706331387</v>
       </c>
       <c r="Y29" t="n">
-        <v>2770.691374355574</v>
+        <v>2770.691374355575</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>95.86329576784992</v>
       </c>
       <c r="J30" t="n">
-        <v>304.8457359496195</v>
+        <v>180.0156109626147</v>
       </c>
       <c r="K30" t="n">
-        <v>526.8302709259556</v>
+        <v>554.1651461946152</v>
       </c>
       <c r="L30" t="n">
-        <v>871.6384139499074</v>
+        <v>898.9732892185671</v>
       </c>
       <c r="M30" t="n">
-        <v>1293.370121481708</v>
+        <v>1320.704996750367</v>
       </c>
       <c r="N30" t="n">
-        <v>1740.672457325761</v>
+        <v>1768.00733259442</v>
       </c>
       <c r="O30" t="n">
-        <v>2127.646911819852</v>
+        <v>2154.981787088511</v>
       </c>
       <c r="P30" t="n">
-        <v>2418.894961578633</v>
+        <v>2446.229836847292</v>
       </c>
       <c r="Q30" t="n">
         <v>2591.002248686989</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>664.8080041343115</v>
+        <v>417.5895091890577</v>
       </c>
       <c r="C31" t="n">
-        <v>664.8080041343117</v>
+        <v>417.5895091890577</v>
       </c>
       <c r="D31" t="n">
-        <v>514.6913647219759</v>
+        <v>267.472869776722</v>
       </c>
       <c r="E31" t="n">
-        <v>366.7782711395828</v>
+        <v>267.472869776722</v>
       </c>
       <c r="F31" t="n">
-        <v>219.8883236416723</v>
+        <v>267.472869776722</v>
       </c>
       <c r="G31" t="n">
-        <v>219.8883236416723</v>
+        <v>99.68379580870992</v>
       </c>
       <c r="H31" t="n">
         <v>95.86329576784992</v>
@@ -6622,13 +6622,13 @@
         <v>135.0102779883111</v>
       </c>
       <c r="K31" t="n">
-        <v>329.177631967875</v>
+        <v>329.1776319678751</v>
       </c>
       <c r="L31" t="n">
-        <v>633.1714301844356</v>
+        <v>633.1714301844354</v>
       </c>
       <c r="M31" t="n">
-        <v>964.0793904226502</v>
+        <v>964.07939042265</v>
       </c>
       <c r="N31" t="n">
         <v>1292.553715403911</v>
@@ -6640,31 +6640,31 @@
         <v>1802.321667228829</v>
       </c>
       <c r="Q31" t="n">
-        <v>1872.854463801036</v>
+        <v>1872.854463801035</v>
       </c>
       <c r="R31" t="n">
-        <v>1872.854463801036</v>
+        <v>1779.14646203904</v>
       </c>
       <c r="S31" t="n">
-        <v>1679.665697936813</v>
+        <v>1585.957696174817</v>
       </c>
       <c r="T31" t="n">
-        <v>1679.665697936813</v>
+        <v>1363.822612098129</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.558127207399</v>
+        <v>1074.715041368714</v>
       </c>
       <c r="V31" t="n">
-        <v>1135.873639001512</v>
+        <v>820.0305531628276</v>
       </c>
       <c r="W31" t="n">
-        <v>846.4564689645513</v>
+        <v>820.0305531628276</v>
       </c>
       <c r="X31" t="n">
-        <v>846.4564689645513</v>
+        <v>820.0305531628276</v>
       </c>
       <c r="Y31" t="n">
-        <v>846.4564689645513</v>
+        <v>599.2379740192974</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1271.075066146047</v>
       </c>
       <c r="F32" t="n">
-        <v>860.0891613564398</v>
+        <v>860.0891613564399</v>
       </c>
       <c r="G32" t="n">
-        <v>444.8244598389296</v>
+        <v>444.8244598389292</v>
       </c>
       <c r="H32" t="n">
-        <v>145.2719651814241</v>
+        <v>145.2719651814243</v>
       </c>
       <c r="I32" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J32" t="n">
-        <v>436.155691840831</v>
+        <v>268.750042820478</v>
       </c>
       <c r="K32" t="n">
-        <v>746.0066276528484</v>
+        <v>578.6009786324953</v>
       </c>
       <c r="L32" t="n">
-        <v>1167.305874279554</v>
+        <v>1413.384827664147</v>
       </c>
       <c r="M32" t="n">
-        <v>2112.770297428041</v>
+        <v>2358.849250812634</v>
       </c>
       <c r="N32" t="n">
-        <v>2708.317971974062</v>
+        <v>3304.980279234474</v>
       </c>
       <c r="O32" t="n">
-        <v>3556.535035164867</v>
+        <v>4150.366852682194</v>
       </c>
       <c r="P32" t="n">
-        <v>4242.794291495363</v>
+        <v>4518.045387922922</v>
       </c>
       <c r="Q32" t="n">
-        <v>4680.924653269471</v>
+        <v>4745.983908943725</v>
       </c>
       <c r="R32" t="n">
         <v>4793.164788392496</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>396.3318339898454</v>
+        <v>414.9161181080925</v>
       </c>
       <c r="C34" t="n">
-        <v>396.3318339898454</v>
+        <v>245.9799351801856</v>
       </c>
       <c r="D34" t="n">
-        <v>246.2151945775097</v>
+        <v>95.86329576784992</v>
       </c>
       <c r="E34" t="n">
-        <v>242.7532432657603</v>
+        <v>95.86329576784992</v>
       </c>
       <c r="F34" t="n">
         <v>95.86329576784992</v>
@@ -6856,10 +6856,10 @@
         <v>95.86329576784992</v>
       </c>
       <c r="J34" t="n">
-        <v>135.0102779883111</v>
+        <v>135.010277988311</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1776319678751</v>
+        <v>329.177631967875</v>
       </c>
       <c r="L34" t="n">
         <v>633.1714301844356</v>
@@ -6880,28 +6880,28 @@
         <v>1872.854463801036</v>
       </c>
       <c r="R34" t="n">
-        <v>1872.854463801036</v>
+        <v>1779.14646203904</v>
       </c>
       <c r="S34" t="n">
-        <v>1679.665697936813</v>
+        <v>1585.957696174817</v>
       </c>
       <c r="T34" t="n">
-        <v>1457.530613860125</v>
+        <v>1363.822612098129</v>
       </c>
       <c r="U34" t="n">
-        <v>1168.42304313071</v>
+        <v>1074.715041368714</v>
       </c>
       <c r="V34" t="n">
-        <v>913.7385549248235</v>
+        <v>820.0305531628275</v>
       </c>
       <c r="W34" t="n">
-        <v>624.3213848878628</v>
+        <v>530.6133831258669</v>
       </c>
       <c r="X34" t="n">
-        <v>396.3318339898454</v>
+        <v>414.9161181080924</v>
       </c>
       <c r="Y34" t="n">
-        <v>396.3318339898454</v>
+        <v>414.9161181080925</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2015.129017351042</v>
       </c>
       <c r="D35" t="n">
-        <v>1656.863318744292</v>
+        <v>1656.863318744291</v>
       </c>
       <c r="E35" t="n">
         <v>1271.075066146047</v>
       </c>
       <c r="F35" t="n">
-        <v>860.0891613564399</v>
+        <v>860.0891613564393</v>
       </c>
       <c r="G35" t="n">
-        <v>444.8244598389297</v>
+        <v>444.8244598389289</v>
       </c>
       <c r="H35" t="n">
         <v>145.2719651814242</v>
@@ -6935,28 +6935,28 @@
         <v>95.86329576784992</v>
       </c>
       <c r="J35" t="n">
-        <v>436.155691840831</v>
+        <v>268.750042820478</v>
       </c>
       <c r="K35" t="n">
-        <v>1066.910586098302</v>
+        <v>578.6009786324953</v>
       </c>
       <c r="L35" t="n">
-        <v>1901.694435129953</v>
+        <v>1413.384827664147</v>
       </c>
       <c r="M35" t="n">
-        <v>2402.140460120537</v>
+        <v>2358.849250812634</v>
       </c>
       <c r="N35" t="n">
-        <v>2915.298033374512</v>
+        <v>3304.980279234474</v>
       </c>
       <c r="O35" t="n">
-        <v>3556.535035164867</v>
+        <v>4150.366852682194</v>
       </c>
       <c r="P35" t="n">
-        <v>4242.794291495363</v>
+        <v>4518.045387922922</v>
       </c>
       <c r="Q35" t="n">
-        <v>4680.924653269471</v>
+        <v>4745.983908943725</v>
       </c>
       <c r="R35" t="n">
         <v>4793.164788392496</v>
@@ -7014,28 +7014,28 @@
         <v>95.86329576784992</v>
       </c>
       <c r="J36" t="n">
-        <v>304.8457359496195</v>
+        <v>293.5151093320052</v>
       </c>
       <c r="K36" t="n">
-        <v>526.8302709259556</v>
+        <v>515.4996443083413</v>
       </c>
       <c r="L36" t="n">
-        <v>871.6384139499074</v>
+        <v>860.3077873322932</v>
       </c>
       <c r="M36" t="n">
-        <v>1293.370121481708</v>
+        <v>1282.039494864093</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.672457325761</v>
+        <v>1729.341830708146</v>
       </c>
       <c r="O36" t="n">
-        <v>2127.646911819852</v>
+        <v>2116.316285202237</v>
       </c>
       <c r="P36" t="n">
-        <v>2418.894961578633</v>
+        <v>2407.564334961018</v>
       </c>
       <c r="Q36" t="n">
-        <v>2591.002248686989</v>
+        <v>2552.336746800715</v>
       </c>
       <c r="R36" t="n">
         <v>2591.002248686989</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>791.5228683484631</v>
+        <v>791.5228683484589</v>
       </c>
       <c r="C37" t="n">
-        <v>670.1421638826819</v>
+        <v>670.1421638826782</v>
       </c>
       <c r="D37" t="n">
-        <v>567.5810029324718</v>
+        <v>567.5810029324688</v>
       </c>
       <c r="E37" t="n">
-        <v>467.2233878122045</v>
+        <v>467.2233878122018</v>
       </c>
       <c r="F37" t="n">
-        <v>367.8889187764198</v>
+        <v>367.8889187764177</v>
       </c>
       <c r="G37" t="n">
-        <v>247.655323270533</v>
+        <v>247.6553232705319</v>
       </c>
       <c r="H37" t="n">
-        <v>148.2268865760535</v>
+        <v>148.2268865760529</v>
       </c>
       <c r="I37" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J37" t="n">
-        <v>181.6194024290405</v>
+        <v>181.619402429041</v>
       </c>
       <c r="K37" t="n">
-        <v>422.3958808493337</v>
+        <v>422.3958808493351</v>
       </c>
       <c r="L37" t="n">
-        <v>772.9988035066237</v>
+        <v>772.9988035066258</v>
       </c>
       <c r="M37" t="n">
-        <v>1150.515888185568</v>
+        <v>1150.51588818557</v>
       </c>
       <c r="N37" t="n">
-        <v>1525.599337607558</v>
+        <v>1525.599337607561</v>
       </c>
       <c r="O37" t="n">
-        <v>1859.591370764095</v>
+        <v>1859.591370764098</v>
       </c>
       <c r="P37" t="n">
-        <v>2128.585538313935</v>
+        <v>2128.585538313939</v>
       </c>
       <c r="Q37" t="n">
-        <v>2245.727459326871</v>
+        <v>2245.727459326875</v>
       </c>
       <c r="R37" t="n">
-        <v>2199.574936027001</v>
+        <v>2199.574936027005</v>
       </c>
       <c r="S37" t="n">
-        <v>2053.941648624904</v>
+        <v>2053.941648624909</v>
       </c>
       <c r="T37" t="n">
-        <v>1879.362043010341</v>
+        <v>1879.362043010347</v>
       </c>
       <c r="U37" t="n">
-        <v>1637.809950743052</v>
+        <v>1637.809950743059</v>
       </c>
       <c r="V37" t="n">
-        <v>1430.680940999291</v>
+        <v>1430.680940999298</v>
       </c>
       <c r="W37" t="n">
-        <v>1188.819249424456</v>
+        <v>1188.819249424464</v>
       </c>
       <c r="X37" t="n">
-        <v>1008.385176988565</v>
+        <v>1008.385176988573</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.1480763071602</v>
+        <v>925.6158547165724</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2384.091534291453</v>
+        <v>2384.091534291454</v>
       </c>
       <c r="C38" t="n">
         <v>2015.129017351042</v>
       </c>
       <c r="D38" t="n">
-        <v>1656.863318744291</v>
+        <v>1656.863318744292</v>
       </c>
       <c r="E38" t="n">
         <v>1271.075066146047</v>
       </c>
       <c r="F38" t="n">
-        <v>860.0891613564393</v>
+        <v>860.0891613564399</v>
       </c>
       <c r="G38" t="n">
-        <v>444.8244598389289</v>
+        <v>444.8244598389297</v>
       </c>
       <c r="H38" t="n">
-        <v>145.2719651814235</v>
+        <v>145.2719651814242</v>
       </c>
       <c r="I38" t="n">
         <v>95.86329576784992</v>
@@ -7175,25 +7175,25 @@
         <v>268.750042820478</v>
       </c>
       <c r="K38" t="n">
-        <v>887.7034126652751</v>
+        <v>578.6009786324953</v>
       </c>
       <c r="L38" t="n">
-        <v>1722.487261696926</v>
+        <v>1410.554337921062</v>
       </c>
       <c r="M38" t="n">
-        <v>2667.951684845414</v>
+        <v>2356.018761069549</v>
       </c>
       <c r="N38" t="n">
-        <v>3614.082713267254</v>
+        <v>3302.149789491389</v>
       </c>
       <c r="O38" t="n">
-        <v>4085.307597007941</v>
+        <v>4150.366852682194</v>
       </c>
       <c r="P38" t="n">
-        <v>4452.986132248669</v>
+        <v>4518.045387922922</v>
       </c>
       <c r="Q38" t="n">
-        <v>4680.924653269471</v>
+        <v>4745.983908943725</v>
       </c>
       <c r="R38" t="n">
         <v>4793.164788392496</v>
@@ -7202,22 +7202,22 @@
         <v>4678.493191996467</v>
       </c>
       <c r="T38" t="n">
-        <v>4471.673864041316</v>
+        <v>4471.673864041317</v>
       </c>
       <c r="U38" t="n">
-        <v>4218.128007206152</v>
+        <v>4218.128007206153</v>
       </c>
       <c r="V38" t="n">
-        <v>3887.065119862581</v>
+        <v>3887.065119862582</v>
       </c>
       <c r="W38" t="n">
-        <v>3534.296464592467</v>
+        <v>3534.296464592468</v>
       </c>
       <c r="X38" t="n">
-        <v>3160.830706331387</v>
+        <v>3160.830706331388</v>
       </c>
       <c r="Y38" t="n">
-        <v>2770.691374355575</v>
+        <v>2770.691374355576</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>701.0550899390458</v>
+        <v>701.0550899390556</v>
       </c>
       <c r="C40" t="n">
-        <v>579.6743854732646</v>
+        <v>579.6743854732749</v>
       </c>
       <c r="D40" t="n">
-        <v>477.1132245230546</v>
+        <v>567.5810029324688</v>
       </c>
       <c r="E40" t="n">
-        <v>467.2233878122041</v>
+        <v>467.2233878122018</v>
       </c>
       <c r="F40" t="n">
-        <v>367.8889187764194</v>
+        <v>367.8889187764177</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6553232705331</v>
+        <v>247.6553232705319</v>
       </c>
       <c r="H40" t="n">
-        <v>148.2268865760535</v>
+        <v>148.2268865760529</v>
       </c>
       <c r="I40" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J40" t="n">
-        <v>181.6194024290404</v>
+        <v>181.6194024290409</v>
       </c>
       <c r="K40" t="n">
-        <v>422.3958808493338</v>
+        <v>422.3958808493347</v>
       </c>
       <c r="L40" t="n">
-        <v>772.9988035066239</v>
+        <v>772.9988035066253</v>
       </c>
       <c r="M40" t="n">
-        <v>1150.515888185568</v>
+        <v>1150.51588818557</v>
       </c>
       <c r="N40" t="n">
-        <v>1525.599337607558</v>
+        <v>1525.599337607561</v>
       </c>
       <c r="O40" t="n">
-        <v>1859.591370764095</v>
+        <v>1859.591370764098</v>
       </c>
       <c r="P40" t="n">
-        <v>2128.585538313935</v>
+        <v>2128.585538313938</v>
       </c>
       <c r="Q40" t="n">
-        <v>2245.727459326871</v>
+        <v>2245.727459326875</v>
       </c>
       <c r="R40" t="n">
-        <v>2199.574936027001</v>
+        <v>2199.574936027005</v>
       </c>
       <c r="S40" t="n">
-        <v>2053.941648624904</v>
+        <v>2053.941648624909</v>
       </c>
       <c r="T40" t="n">
-        <v>1879.362043010341</v>
+        <v>1879.362043010347</v>
       </c>
       <c r="U40" t="n">
-        <v>1637.809950743052</v>
+        <v>1637.809950743059</v>
       </c>
       <c r="V40" t="n">
-        <v>1430.680940999291</v>
+        <v>1430.680940999298</v>
       </c>
       <c r="W40" t="n">
-        <v>1188.819249424456</v>
+        <v>1188.819249424464</v>
       </c>
       <c r="X40" t="n">
-        <v>1008.385176988564</v>
+        <v>1008.385176988573</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.1480763071598</v>
+        <v>835.148076307169</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2384.091534291453</v>
+        <v>2384.091534291454</v>
       </c>
       <c r="C41" t="n">
         <v>2015.129017351042</v>
@@ -7436,25 +7436,25 @@
         <v>4793.164788392496</v>
       </c>
       <c r="S41" t="n">
-        <v>4678.493191996467</v>
+        <v>4678.493191996468</v>
       </c>
       <c r="T41" t="n">
-        <v>4471.673864041316</v>
+        <v>4471.673864041317</v>
       </c>
       <c r="U41" t="n">
-        <v>4218.128007206152</v>
+        <v>4218.128007206153</v>
       </c>
       <c r="V41" t="n">
-        <v>3887.065119862581</v>
+        <v>3887.065119862582</v>
       </c>
       <c r="W41" t="n">
-        <v>3534.296464592467</v>
+        <v>3534.296464592468</v>
       </c>
       <c r="X41" t="n">
-        <v>3160.830706331387</v>
+        <v>3160.830706331388</v>
       </c>
       <c r="Y41" t="n">
-        <v>2770.691374355575</v>
+        <v>2770.691374355576</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.0550899390466</v>
+        <v>701.0550899390554</v>
       </c>
       <c r="C43" t="n">
-        <v>579.6743854732654</v>
+        <v>670.1421638826782</v>
       </c>
       <c r="D43" t="n">
-        <v>477.1132245230554</v>
+        <v>567.5810029324688</v>
       </c>
       <c r="E43" t="n">
-        <v>467.2233878122041</v>
+        <v>467.2233878122019</v>
       </c>
       <c r="F43" t="n">
-        <v>367.8889187764194</v>
+        <v>367.8889187764178</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6553232705331</v>
+        <v>247.655323270532</v>
       </c>
       <c r="H43" t="n">
-        <v>148.2268865760535</v>
+        <v>148.2268865760529</v>
       </c>
       <c r="I43" t="n">
         <v>95.86329576784992</v>
@@ -7570,49 +7570,49 @@
         <v>181.619402429041</v>
       </c>
       <c r="K43" t="n">
-        <v>422.3958808493344</v>
+        <v>422.3958808493349</v>
       </c>
       <c r="L43" t="n">
-        <v>772.9988035066249</v>
+        <v>772.9988035066254</v>
       </c>
       <c r="M43" t="n">
-        <v>1150.515888185569</v>
+        <v>1150.51588818557</v>
       </c>
       <c r="N43" t="n">
-        <v>1525.599337607559</v>
+        <v>1525.599337607561</v>
       </c>
       <c r="O43" t="n">
-        <v>1859.591370764095</v>
+        <v>1859.591370764098</v>
       </c>
       <c r="P43" t="n">
-        <v>2128.585538313936</v>
+        <v>2128.585538313938</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.727459326871</v>
+        <v>2245.727459326875</v>
       </c>
       <c r="R43" t="n">
-        <v>2199.574936027001</v>
+        <v>2199.574936027006</v>
       </c>
       <c r="S43" t="n">
-        <v>2053.941648624904</v>
+        <v>2053.941648624909</v>
       </c>
       <c r="T43" t="n">
-        <v>1879.362043010341</v>
+        <v>1879.362043010347</v>
       </c>
       <c r="U43" t="n">
-        <v>1637.809950743053</v>
+        <v>1637.809950743059</v>
       </c>
       <c r="V43" t="n">
-        <v>1430.680940999292</v>
+        <v>1430.680940999298</v>
       </c>
       <c r="W43" t="n">
-        <v>1188.819249424457</v>
+        <v>1188.819249424464</v>
       </c>
       <c r="X43" t="n">
-        <v>1008.385176988565</v>
+        <v>1008.385176988573</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.1480763071606</v>
+        <v>835.1480763071688</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>860.0891613564399</v>
       </c>
       <c r="G44" t="n">
-        <v>444.8244598389297</v>
+        <v>444.8244598389292</v>
       </c>
       <c r="H44" t="n">
         <v>145.2719651814242</v>
@@ -7646,28 +7646,28 @@
         <v>95.86329576784992</v>
       </c>
       <c r="J44" t="n">
-        <v>436.155691840831</v>
+        <v>268.750042820478</v>
       </c>
       <c r="K44" t="n">
-        <v>1066.910586098302</v>
+        <v>578.6009786324953</v>
       </c>
       <c r="L44" t="n">
-        <v>1626.688155021718</v>
+        <v>1410.554337921062</v>
       </c>
       <c r="M44" t="n">
-        <v>2572.152578170205</v>
+        <v>2356.018761069549</v>
       </c>
       <c r="N44" t="n">
-        <v>3085.31015142418</v>
+        <v>3302.149789491389</v>
       </c>
       <c r="O44" t="n">
-        <v>3556.535035164867</v>
+        <v>4150.366852682194</v>
       </c>
       <c r="P44" t="n">
-        <v>4242.794291495363</v>
+        <v>4518.045387922922</v>
       </c>
       <c r="Q44" t="n">
-        <v>4680.924653269471</v>
+        <v>4745.983908943725</v>
       </c>
       <c r="R44" t="n">
         <v>4793.164788392496</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>791.5228683484627</v>
+        <v>791.5228683484589</v>
       </c>
       <c r="C46" t="n">
-        <v>670.1421638826814</v>
+        <v>670.1421638826782</v>
       </c>
       <c r="D46" t="n">
-        <v>567.5810029324714</v>
+        <v>567.5810029324688</v>
       </c>
       <c r="E46" t="n">
-        <v>467.223387812204</v>
+        <v>467.2233878122018</v>
       </c>
       <c r="F46" t="n">
-        <v>367.8889187764194</v>
+        <v>367.8889187764177</v>
       </c>
       <c r="G46" t="n">
-        <v>247.655323270533</v>
+        <v>247.6553232705319</v>
       </c>
       <c r="H46" t="n">
-        <v>148.2268865760535</v>
+        <v>148.2268865760529</v>
       </c>
       <c r="I46" t="n">
         <v>95.86329576784992</v>
       </c>
       <c r="J46" t="n">
-        <v>181.6194024290405</v>
+        <v>181.619402429041</v>
       </c>
       <c r="K46" t="n">
-        <v>422.3958808493337</v>
+        <v>422.3958808493348</v>
       </c>
       <c r="L46" t="n">
-        <v>772.9988035066237</v>
+        <v>772.9988035066253</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.515888185568</v>
+        <v>1150.51588818557</v>
       </c>
       <c r="N46" t="n">
-        <v>1525.599337607558</v>
+        <v>1525.599337607561</v>
       </c>
       <c r="O46" t="n">
-        <v>1859.591370764094</v>
+        <v>1859.591370764098</v>
       </c>
       <c r="P46" t="n">
-        <v>2128.585538313935</v>
+        <v>2128.585538313938</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.727459326871</v>
+        <v>2245.727459326875</v>
       </c>
       <c r="R46" t="n">
-        <v>2199.574936027001</v>
+        <v>2199.574936027005</v>
       </c>
       <c r="S46" t="n">
-        <v>2053.941648624904</v>
+        <v>2053.941648624909</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.829821419758</v>
+        <v>1879.362043010347</v>
       </c>
       <c r="U46" t="n">
-        <v>1728.277729152469</v>
+        <v>1637.809950743059</v>
       </c>
       <c r="V46" t="n">
-        <v>1521.148719408708</v>
+        <v>1430.680940999298</v>
       </c>
       <c r="W46" t="n">
-        <v>1279.287027833873</v>
+        <v>1188.819249424464</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.852955397981</v>
+        <v>1008.385176988573</v>
       </c>
       <c r="Y46" t="n">
-        <v>925.6158547165767</v>
+        <v>925.6158547165724</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>377.9411007141658</v>
+        <v>377.9411007141754</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.61098511985816</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.61098511985196</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.465607299932742</v>
+        <v>6.465607299932998</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>377.9411007141754</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3.244221568542258</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>414.8021340018798</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>377.9411007141754</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>27.61098511985816</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>27.61098511985796</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>414.8021340018798</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>377.9411007141754</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>53.79568814300981</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>26.67558138818237</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>27.61098511985807</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>153.7020204602672</v>
       </c>
       <c r="R24" t="n">
         <v>6.465607299932998</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>53.79568814300981</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>208.5904454590877</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>27.61098511985824</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.61098511985799</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>6.465607299932998</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>414.8021340018798</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>208.5904454590875</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>153.702020460267</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.61098511985799</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>6.465607299932998</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>83.22232453742004</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>377.9411007141754</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>171.7294121713825</v>
+        <v>377.9411007141754</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>114.6459579488792</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.61098511985799</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.465607299932998</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>312.2246808411917</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>414.8021340018798</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>139.8770932290008</v>
+        <v>414.8021340018798</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>108.8658346953876</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.1111832283319</v>
       </c>
       <c r="H13" t="n">
-        <v>14.16140639359213</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.91987857762584</v>
+        <v>98.91987857762595</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.77092174437568</v>
+        <v>92.77092174437584</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2164950221203</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>48.55084031436947</v>
+        <v>166.1111832283319</v>
       </c>
       <c r="H16" t="n">
-        <v>145.5140760050392</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.91987857762595</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>92.77092174437584</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>66.63487651735883</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2164950221203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.1111832283319</v>
       </c>
       <c r="H19" t="n">
-        <v>145.5140760050392</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.91987857762595</v>
@@ -23938,19 +23938,19 @@
         <v>92.77092174437584</v>
       </c>
       <c r="S19" t="n">
-        <v>66.54184853525055</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2164950221203</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>220.8888651829508</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.98360036037363</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>67.55476315888816</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.466824233051852</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>191.2568782055801</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>13.89172225669489</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.1111832283319</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.5140760050392</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.91987857762595</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.77092174437584</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.9137332359214</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2164950221203</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>129.0887394874372</v>
       </c>
       <c r="X28" t="n">
-        <v>100.9527806942567</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.1111832283319</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>22.729298409955</v>
+        <v>141.7317809645878</v>
       </c>
       <c r="I31" t="n">
         <v>98.91987857762595</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.77092174437584</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.9137332359214</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25075,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.0066308479377</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.1111832283319</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>92.77092174437584</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>111.1693630214404</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.56310062532278</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>89.56310062530927</v>
       </c>
     </row>
     <row r="38">
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>89.56310062530927</v>
       </c>
       <c r="E40" t="n">
-        <v>89.56310062532278</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>89.56310062530949</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>89.56310062532236</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>89.56310062532218</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>89.56310062531016</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812646.8816885344</v>
+        <v>812646.8816885345</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812646.8816885346</v>
+        <v>812646.8816885345</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812646.8816885344</v>
+        <v>812646.8816885345</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812646.8816885344</v>
+        <v>812646.8816885345</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839585.03475439</v>
+        <v>839585.0347543904</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839585.03475439</v>
+        <v>839585.0347543904</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839585.03475439</v>
+        <v>839585.0347543904</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839585.03475439</v>
+        <v>839585.0347543904</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982126</v>
-      </c>
       <c r="E2" t="n">
-        <v>593965.5767875648</v>
+        <v>593965.5767875647</v>
       </c>
       <c r="F2" t="n">
         <v>593965.5767875648</v>
       </c>
       <c r="G2" t="n">
-        <v>593965.5767875649</v>
+        <v>593965.5767875647</v>
       </c>
       <c r="H2" t="n">
         <v>593965.5767875648</v>
       </c>
       <c r="I2" t="n">
-        <v>593965.5767875646</v>
+        <v>593965.5767875653</v>
       </c>
       <c r="J2" t="n">
-        <v>593965.5767875647</v>
+        <v>593965.5767875649</v>
       </c>
       <c r="K2" t="n">
         <v>593965.5767875648</v>
@@ -26347,13 +26347,13 @@
         <v>614169.1915869563</v>
       </c>
       <c r="N2" t="n">
-        <v>614169.1915869564</v>
+        <v>614169.1915869563</v>
       </c>
       <c r="O2" t="n">
         <v>614169.1915869563</v>
       </c>
       <c r="P2" t="n">
-        <v>614169.1915869561</v>
+        <v>614169.1915869563</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690468.967662105</v>
+        <v>690468.9676621035</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>168247.8129041182</v>
+        <v>168247.8129041186</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>21484.21396943133</v>
+        <v>21484.21396943147</v>
       </c>
       <c r="F4" t="n">
+        <v>21484.21396943141</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21484.21396943149</v>
+      </c>
+      <c r="H4" t="n">
         <v>21484.21396943145</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>21484.21396943146</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21484.21396943146</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21484.21396943145</v>
       </c>
       <c r="J4" t="n">
         <v>21484.21396943145</v>
@@ -26445,19 +26445,19 @@
         <v>21484.21396943145</v>
       </c>
       <c r="L4" t="n">
-        <v>21484.21396943145</v>
+        <v>21484.21396943146</v>
       </c>
       <c r="M4" t="n">
-        <v>36975.85511215087</v>
+        <v>36975.85511215105</v>
       </c>
       <c r="N4" t="n">
-        <v>36975.85511215088</v>
+        <v>36975.85511215106</v>
       </c>
       <c r="O4" t="n">
-        <v>36975.85511215086</v>
+        <v>36975.85511215105</v>
       </c>
       <c r="P4" t="n">
-        <v>36975.85511215084</v>
+        <v>36975.85511215102</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95581.13109122652</v>
+        <v>95581.13109122647</v>
       </c>
       <c r="F5" t="n">
         <v>95581.13109122647</v>
@@ -26500,16 +26500,16 @@
         <v>95581.13109122647</v>
       </c>
       <c r="M5" t="n">
-        <v>99539.0931948706</v>
+        <v>99539.09319487064</v>
       </c>
       <c r="N5" t="n">
-        <v>99539.0931948706</v>
+        <v>99539.09319487064</v>
       </c>
       <c r="O5" t="n">
-        <v>99539.0931948706</v>
+        <v>99539.09319487064</v>
       </c>
       <c r="P5" t="n">
-        <v>99539.0931948706</v>
+        <v>99539.09319487064</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-240394.3167368689</v>
+        <v>-240394.3167368691</v>
       </c>
       <c r="C6" t="n">
-        <v>349573.5624776752</v>
+        <v>349573.5624776754</v>
       </c>
       <c r="D6" t="n">
-        <v>349573.5624776752</v>
+        <v>349573.562477675</v>
       </c>
       <c r="E6" t="n">
-        <v>-213568.7359351981</v>
+        <v>-213641.4551038989</v>
       </c>
       <c r="F6" t="n">
-        <v>476900.2317269082</v>
+        <v>476827.5125582047</v>
       </c>
       <c r="G6" t="n">
-        <v>476900.231726907</v>
+        <v>476827.5125582046</v>
       </c>
       <c r="H6" t="n">
-        <v>476900.2317269068</v>
+        <v>476827.5125582047</v>
       </c>
       <c r="I6" t="n">
-        <v>476900.2317269066</v>
+        <v>476827.5125582052</v>
       </c>
       <c r="J6" t="n">
-        <v>300477.0125343138</v>
+        <v>300404.2933656119</v>
       </c>
       <c r="K6" t="n">
-        <v>476900.2317269068</v>
+        <v>476827.5125582047</v>
       </c>
       <c r="L6" t="n">
-        <v>476900.2317269068</v>
+        <v>476827.5125582047</v>
       </c>
       <c r="M6" t="n">
-        <v>309406.4303758165</v>
+        <v>309401.0565897785</v>
       </c>
       <c r="N6" t="n">
-        <v>477654.2432799349</v>
+        <v>477648.8694938971</v>
       </c>
       <c r="O6" t="n">
-        <v>477654.2432799347</v>
+        <v>477648.8694938971</v>
       </c>
       <c r="P6" t="n">
-        <v>477654.2432799346</v>
+        <v>477648.8694938971</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="N2" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="O2" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="P2" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1042.432399433972</v>
+        <v>1042.43239943397</v>
       </c>
       <c r="F3" t="n">
         <v>1042.43239943397</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1198.291197098124</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>664.6887352168849</v>
+        <v>664.6887352168831</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.407378784773449e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.0039243435685</v>
+        <v>524.0039243435684</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.0039243435685</v>
+        <v>524.0039243435684</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.0039243435685</v>
+        <v>524.0039243435684</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>79.22294309127375</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>218.7821368177282</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>107.5829646831824</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352324</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>129.2226540149254</v>
+        <v>29.0521091002534</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>117.3198908784085</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>165.9828178131687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>342.9616438111595</v>
       </c>
       <c r="H8" t="n">
-        <v>275.9848427990831</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>103.347338541018</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.105823316955884e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="C37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="D37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="E37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="F37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="G37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="I37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="J37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="K37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="L37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="M37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="N37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="O37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="P37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="R37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="S37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="T37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="U37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="V37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="W37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="X37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.460698725481052e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="C40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="D40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="E40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="F40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="G40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="I40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="J40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="K40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="L40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="M40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="N40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="O40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="P40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="R40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="S40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="T40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="U40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="V40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="W40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="X40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="C43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="D43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="E43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="F43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="G43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="I43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="J43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="K43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="L43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="M43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="N43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="O43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="P43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="R43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="S43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="T43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="U43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="V43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="W43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="X43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="C46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="D46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="E46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="F46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="G46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="I46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="J46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="K46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="L46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="M46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="N46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="O46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="P46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="R46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="S46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="T46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="U46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="V46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="W46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="X46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.07992367750444</v>
+        <v>47.07992367750496</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.190683012799883</v>
+        <v>4.190683012799875</v>
       </c>
       <c r="H11" t="n">
-        <v>42.91783240483681</v>
+        <v>42.91783240483673</v>
       </c>
       <c r="I11" t="n">
-        <v>161.5613068509676</v>
+        <v>161.5613068509674</v>
       </c>
       <c r="J11" t="n">
-        <v>355.6789823576244</v>
+        <v>355.6789823576237</v>
       </c>
       <c r="K11" t="n">
-        <v>533.0705942894435</v>
+        <v>533.0705942894425</v>
       </c>
       <c r="L11" t="n">
-        <v>661.321209542418</v>
+        <v>661.3212095424169</v>
       </c>
       <c r="M11" t="n">
-        <v>735.8472685712979</v>
+        <v>735.8472685712966</v>
       </c>
       <c r="N11" t="n">
-        <v>747.7540466814156</v>
+        <v>747.7540466814144</v>
       </c>
       <c r="O11" t="n">
-        <v>706.0829424728868</v>
+        <v>706.0829424728855</v>
       </c>
       <c r="P11" t="n">
-        <v>602.6254555943896</v>
+        <v>602.6254555943885</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.5466201984937</v>
+        <v>452.5466201984929</v>
       </c>
       <c r="R11" t="n">
-        <v>263.2429918027909</v>
+        <v>263.2429918027904</v>
       </c>
       <c r="S11" t="n">
-        <v>95.49518915417742</v>
+        <v>95.49518915417725</v>
       </c>
       <c r="T11" t="n">
-        <v>18.3447148885315</v>
+        <v>18.34471488853146</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3352546410239906</v>
+        <v>0.3352546410239899</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.242213085574958</v>
+        <v>2.242213085574954</v>
       </c>
       <c r="H12" t="n">
-        <v>21.65505795805289</v>
+        <v>21.65505795805285</v>
       </c>
       <c r="I12" t="n">
-        <v>77.19900316562904</v>
+        <v>77.19900316562891</v>
       </c>
       <c r="J12" t="n">
-        <v>211.8399652472376</v>
+        <v>211.8399652472372</v>
       </c>
       <c r="K12" t="n">
-        <v>362.0682419807598</v>
+        <v>362.0682419807591</v>
       </c>
       <c r="L12" t="n">
-        <v>486.8454333394224</v>
+        <v>486.8454333394215</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1256576915144</v>
+        <v>568.1256576915134</v>
       </c>
       <c r="N12" t="n">
-        <v>583.1622533399536</v>
+        <v>583.1622533399526</v>
       </c>
       <c r="O12" t="n">
-        <v>533.4795318122137</v>
+        <v>533.4795318122128</v>
       </c>
       <c r="P12" t="n">
-        <v>428.1643566656251</v>
+        <v>428.1643566656243</v>
       </c>
       <c r="Q12" t="n">
-        <v>286.2165335200596</v>
+        <v>286.216533520059</v>
       </c>
       <c r="R12" t="n">
-        <v>139.2138966640312</v>
+        <v>139.213896664031</v>
       </c>
       <c r="S12" t="n">
-        <v>41.64812463776289</v>
+        <v>41.64812463776282</v>
       </c>
       <c r="T12" t="n">
-        <v>9.037692217734147</v>
+        <v>9.037692217734131</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1475140187878262</v>
+        <v>0.147514018787826</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.879796130126834</v>
+        <v>1.87979613012683</v>
       </c>
       <c r="H13" t="n">
-        <v>16.71309650240041</v>
+        <v>16.71309650240038</v>
       </c>
       <c r="I13" t="n">
-        <v>56.53059634963244</v>
+        <v>56.53059634963234</v>
       </c>
       <c r="J13" t="n">
-        <v>132.9015863999671</v>
+        <v>132.9015863999669</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3981322092812</v>
+        <v>218.3981322092808</v>
       </c>
       <c r="L13" t="n">
-        <v>279.474417382675</v>
+        <v>279.4744173826745</v>
       </c>
       <c r="M13" t="n">
-        <v>294.6665879252454</v>
+        <v>294.6665879252449</v>
       </c>
       <c r="N13" t="n">
-        <v>287.6600750765911</v>
+        <v>287.6600750765905</v>
       </c>
       <c r="O13" t="n">
-        <v>265.7006384655638</v>
+        <v>265.7006384655634</v>
       </c>
       <c r="P13" t="n">
-        <v>227.3527974109763</v>
+        <v>227.3527974109759</v>
       </c>
       <c r="Q13" t="n">
-        <v>157.4072923145297</v>
+        <v>157.4072923145294</v>
       </c>
       <c r="R13" t="n">
-        <v>84.5224696327938</v>
+        <v>84.52246963279364</v>
       </c>
       <c r="S13" t="n">
-        <v>32.75971983139218</v>
+        <v>32.75971983139212</v>
       </c>
       <c r="T13" t="n">
-        <v>8.031856192360106</v>
+        <v>8.031856192360092</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1025343343705547</v>
+        <v>0.1025343343705545</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>174.6330778309381</v>
+        <v>174.6330778309375</v>
       </c>
       <c r="K11" t="n">
-        <v>312.980743244463</v>
+        <v>312.980743244462</v>
       </c>
       <c r="L11" t="n">
-        <v>843.2160091228812</v>
+        <v>843.2160091228801</v>
       </c>
       <c r="M11" t="n">
-        <v>955.0145688368577</v>
+        <v>955.0145688368564</v>
       </c>
       <c r="N11" t="n">
-        <v>955.6879074968089</v>
+        <v>955.6879074968076</v>
       </c>
       <c r="O11" t="n">
-        <v>853.9258317653658</v>
+        <v>853.9258317653741</v>
       </c>
       <c r="P11" t="n">
-        <v>371.39245983912</v>
+        <v>371.392459839119</v>
       </c>
       <c r="Q11" t="n">
-        <v>230.2409303240442</v>
+        <v>230.2409303240434</v>
       </c>
       <c r="R11" t="n">
-        <v>47.65745398865874</v>
+        <v>47.65745398865829</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>211.0933739209797</v>
+        <v>211.0933739209794</v>
       </c>
       <c r="K12" t="n">
-        <v>224.2268030064008</v>
+        <v>251.8377881262583</v>
       </c>
       <c r="L12" t="n">
-        <v>348.2910535595482</v>
+        <v>348.2910535595473</v>
       </c>
       <c r="M12" t="n">
-        <v>425.9916237694961</v>
+        <v>425.9916237694951</v>
       </c>
       <c r="N12" t="n">
-        <v>451.8205412566203</v>
+        <v>451.8205412566193</v>
       </c>
       <c r="O12" t="n">
-        <v>390.8832873677693</v>
+        <v>390.8832873677684</v>
       </c>
       <c r="P12" t="n">
-        <v>294.1899492512948</v>
+        <v>294.1899492512941</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.84574455389</v>
+        <v>146.2347594340375</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.54240628329435</v>
+        <v>39.54240628329413</v>
       </c>
       <c r="K13" t="n">
-        <v>196.1286403833983</v>
+        <v>196.128640383398</v>
       </c>
       <c r="L13" t="n">
-        <v>307.0644426429911</v>
+        <v>307.0644426429906</v>
       </c>
       <c r="M13" t="n">
-        <v>334.250464887086</v>
+        <v>334.2504648870855</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7922474558196</v>
+        <v>331.7922474558192</v>
       </c>
       <c r="O13" t="n">
-        <v>290.2857663796035</v>
+        <v>290.285766379603</v>
       </c>
       <c r="P13" t="n">
-        <v>224.6313566758697</v>
+        <v>224.6313566758693</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.24524906283533</v>
+        <v>71.24524906283504</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>174.6330778309375</v>
+        <v>343.7296930030112</v>
       </c>
       <c r="K14" t="n">
-        <v>312.980743244462</v>
+        <v>637.1261558156267</v>
       </c>
       <c r="L14" t="n">
         <v>843.2160091228801</v>
       </c>
       <c r="M14" t="n">
-        <v>955.0145688368564</v>
+        <v>505.5010353440239</v>
       </c>
       <c r="N14" t="n">
-        <v>955.6879074968076</v>
+        <v>518.3409830848234</v>
       </c>
       <c r="O14" t="n">
-        <v>853.9258317653741</v>
+        <v>856.7849123139441</v>
       </c>
       <c r="P14" t="n">
-        <v>371.392459839119</v>
+        <v>693.1911680106016</v>
       </c>
       <c r="Q14" t="n">
-        <v>230.2409303240434</v>
+        <v>233.4851518925856</v>
       </c>
       <c r="R14" t="n">
-        <v>47.65745398865829</v>
+        <v>113.3738738616407</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>312.980743244462</v>
       </c>
       <c r="L17" t="n">
-        <v>843.2160091228801</v>
+        <v>840.3569285743094</v>
       </c>
       <c r="M17" t="n">
         <v>955.0145688368564</v>
@@ -35896,7 +35896,7 @@
         <v>955.6879074968076</v>
       </c>
       <c r="O17" t="n">
-        <v>853.9258317653741</v>
+        <v>856.7849123139441</v>
       </c>
       <c r="P17" t="n">
         <v>371.392459839119</v>
@@ -35963,7 +35963,7 @@
         <v>211.0933739209794</v>
       </c>
       <c r="K18" t="n">
-        <v>224.2268030064001</v>
+        <v>251.8377881262583</v>
       </c>
       <c r="L18" t="n">
         <v>348.2910535595473</v>
@@ -35978,7 +35978,7 @@
         <v>390.8832873677684</v>
       </c>
       <c r="P18" t="n">
-        <v>321.800934371152</v>
+        <v>294.1899492512941</v>
       </c>
       <c r="Q18" t="n">
         <v>146.2347594340375</v>
@@ -36124,7 +36124,7 @@
         <v>312.980743244462</v>
       </c>
       <c r="L20" t="n">
-        <v>843.2160091228801</v>
+        <v>840.3569285743094</v>
       </c>
       <c r="M20" t="n">
         <v>955.0145688368564</v>
@@ -36133,7 +36133,7 @@
         <v>955.6879074968076</v>
       </c>
       <c r="O20" t="n">
-        <v>853.9258317653741</v>
+        <v>856.7849123139441</v>
       </c>
       <c r="P20" t="n">
         <v>371.392459839119</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>228.4287659739473</v>
+        <v>343.7296930030112</v>
       </c>
       <c r="K23" t="n">
-        <v>637.1261558156267</v>
+        <v>312.980743244462</v>
       </c>
       <c r="L23" t="n">
-        <v>843.2160091228801</v>
+        <v>425.5547945724297</v>
       </c>
       <c r="M23" t="n">
         <v>955.0145688368564</v>
@@ -36370,16 +36370,16 @@
         <v>955.6879074968076</v>
       </c>
       <c r="O23" t="n">
-        <v>475.9847310511988</v>
+        <v>502.6603124393811</v>
       </c>
       <c r="P23" t="n">
-        <v>371.392459839119</v>
+        <v>693.1911680106016</v>
       </c>
       <c r="Q23" t="n">
-        <v>230.2409303240434</v>
+        <v>442.5559209839481</v>
       </c>
       <c r="R23" t="n">
-        <v>47.65745398865829</v>
+        <v>113.3738738616407</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>211.0933739209794</v>
+        <v>85.00233858057052</v>
       </c>
       <c r="K24" t="n">
         <v>224.2268030064001</v>
@@ -36449,13 +36449,13 @@
         <v>451.8205412566193</v>
       </c>
       <c r="O24" t="n">
-        <v>418.4942724876265</v>
+        <v>390.8832873677684</v>
       </c>
       <c r="P24" t="n">
         <v>294.1899492512941</v>
       </c>
       <c r="Q24" t="n">
-        <v>146.2347594340375</v>
+        <v>299.9367798943047</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>343.7296930030112</v>
+        <v>228.4287659739473</v>
       </c>
       <c r="K26" t="n">
         <v>637.1261558156267</v>
       </c>
       <c r="L26" t="n">
-        <v>634.1452400315173</v>
+        <v>843.2160091228801</v>
       </c>
       <c r="M26" t="n">
-        <v>505.5010353440239</v>
+        <v>955.0145688368564</v>
       </c>
       <c r="N26" t="n">
-        <v>518.3409830848234</v>
+        <v>955.6879074968076</v>
       </c>
       <c r="O26" t="n">
-        <v>856.7849123139441</v>
+        <v>475.9847310511988</v>
       </c>
       <c r="P26" t="n">
-        <v>693.1911680106016</v>
+        <v>371.392459839119</v>
       </c>
       <c r="Q26" t="n">
-        <v>442.5559209839481</v>
+        <v>230.2409303240434</v>
       </c>
       <c r="R26" t="n">
-        <v>113.3738738616407</v>
+        <v>47.65745398865829</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>224.2268030064001</v>
       </c>
       <c r="L27" t="n">
-        <v>348.2910535595473</v>
+        <v>375.9020386794056</v>
       </c>
       <c r="M27" t="n">
         <v>425.9916237694951</v>
@@ -36692,7 +36692,7 @@
         <v>294.1899492512941</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8457445538955</v>
+        <v>146.2347594340375</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>343.7296930030112</v>
+        <v>174.6330778309375</v>
       </c>
       <c r="K29" t="n">
-        <v>637.1261558156267</v>
+        <v>312.980743244462</v>
       </c>
       <c r="L29" t="n">
-        <v>425.5547945724297</v>
+        <v>840.3569285743094</v>
       </c>
       <c r="M29" t="n">
-        <v>505.5010353440239</v>
+        <v>955.0145688368564</v>
       </c>
       <c r="N29" t="n">
-        <v>726.9314285439109</v>
+        <v>955.6879074968076</v>
       </c>
       <c r="O29" t="n">
         <v>856.7849123139441</v>
       </c>
       <c r="P29" t="n">
-        <v>693.1911680106016</v>
+        <v>371.392459839119</v>
       </c>
       <c r="Q29" t="n">
-        <v>442.5559209839481</v>
+        <v>230.2409303240434</v>
       </c>
       <c r="R29" t="n">
-        <v>113.3738738616407</v>
+        <v>47.65745398865829</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>211.0933739209794</v>
+        <v>85.00233858057052</v>
       </c>
       <c r="K30" t="n">
-        <v>224.2268030064001</v>
+        <v>377.9288234666672</v>
       </c>
       <c r="L30" t="n">
         <v>348.2910535595473</v>
@@ -36929,7 +36929,7 @@
         <v>294.1899492512941</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8457445538955</v>
+        <v>146.2347594340375</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>343.7296930030112</v>
+        <v>174.6330778309375</v>
       </c>
       <c r="K32" t="n">
         <v>312.980743244462</v>
       </c>
       <c r="L32" t="n">
-        <v>425.5547945724297</v>
+        <v>843.2160091228801</v>
       </c>
       <c r="M32" t="n">
         <v>955.0145688368564</v>
       </c>
       <c r="N32" t="n">
-        <v>601.5633076222434</v>
+        <v>955.6879074968076</v>
       </c>
       <c r="O32" t="n">
-        <v>856.7849123139441</v>
+        <v>853.9258317653741</v>
       </c>
       <c r="P32" t="n">
-        <v>693.1911680106016</v>
+        <v>371.392459839119</v>
       </c>
       <c r="Q32" t="n">
-        <v>442.5559209839481</v>
+        <v>230.2409303240434</v>
       </c>
       <c r="R32" t="n">
-        <v>113.3738738616407</v>
+        <v>47.65745398865829</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>343.7296930030112</v>
+        <v>174.6330778309375</v>
       </c>
       <c r="K35" t="n">
-        <v>637.1261558156267</v>
+        <v>312.980743244462</v>
       </c>
       <c r="L35" t="n">
         <v>843.2160091228801</v>
       </c>
       <c r="M35" t="n">
-        <v>505.5010353440239</v>
+        <v>955.0145688368564</v>
       </c>
       <c r="N35" t="n">
-        <v>518.3409830848234</v>
+        <v>955.6879074968076</v>
       </c>
       <c r="O35" t="n">
-        <v>647.7141432225812</v>
+        <v>853.9258317653741</v>
       </c>
       <c r="P35" t="n">
-        <v>693.1911680106016</v>
+        <v>371.392459839119</v>
       </c>
       <c r="Q35" t="n">
-        <v>442.5559209839481</v>
+        <v>230.2409303240434</v>
       </c>
       <c r="R35" t="n">
-        <v>113.3738738616407</v>
+        <v>47.65745398865829</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>211.0933739209794</v>
+        <v>199.6482965294497</v>
       </c>
       <c r="K36" t="n">
         <v>224.2268030064001</v>
@@ -37403,10 +37403,10 @@
         <v>294.1899492512941</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8457445538955</v>
+        <v>146.2347594340375</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>39.05606251138782</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>86.62232996079857</v>
+        <v>86.62232996079909</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2085640609024</v>
+        <v>243.2085640609029</v>
       </c>
       <c r="L37" t="n">
-        <v>354.144366320495</v>
+        <v>354.1443663204955</v>
       </c>
       <c r="M37" t="n">
-        <v>381.3303885645899</v>
+        <v>381.3303885645904</v>
       </c>
       <c r="N37" t="n">
-        <v>378.8721711333236</v>
+        <v>378.8721711333241</v>
       </c>
       <c r="O37" t="n">
-        <v>337.3656900571075</v>
+        <v>337.365690057108</v>
       </c>
       <c r="P37" t="n">
-        <v>271.7112803533738</v>
+        <v>271.7112803533743</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.3251727403395</v>
+        <v>118.32517274034</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>174.6330778309375</v>
       </c>
       <c r="K38" t="n">
-        <v>625.2054240856537</v>
+        <v>312.980743244462</v>
       </c>
       <c r="L38" t="n">
-        <v>843.2160091228801</v>
+        <v>840.3569285743094</v>
       </c>
       <c r="M38" t="n">
         <v>955.0145688368564</v>
@@ -37555,7 +37555,7 @@
         <v>955.6879074968076</v>
       </c>
       <c r="O38" t="n">
-        <v>475.9847310511988</v>
+        <v>856.7849123139441</v>
       </c>
       <c r="P38" t="n">
         <v>371.392459839119</v>
@@ -37564,7 +37564,7 @@
         <v>230.2409303240434</v>
       </c>
       <c r="R38" t="n">
-        <v>113.3738738616407</v>
+        <v>47.65745398865829</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>86.62232996079857</v>
+        <v>86.62232996079909</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2085640609024</v>
+        <v>243.2085640609029</v>
       </c>
       <c r="L40" t="n">
-        <v>354.144366320495</v>
+        <v>354.1443663204955</v>
       </c>
       <c r="M40" t="n">
-        <v>381.3303885645899</v>
+        <v>381.3303885645904</v>
       </c>
       <c r="N40" t="n">
-        <v>378.8721711333236</v>
+        <v>378.8721711333241</v>
       </c>
       <c r="O40" t="n">
-        <v>337.3656900571075</v>
+        <v>337.365690057108</v>
       </c>
       <c r="P40" t="n">
-        <v>271.7112803533738</v>
+        <v>271.7112803533743</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.3251727403395</v>
+        <v>118.32517274034</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>86.62232996079857</v>
+        <v>86.62232996079909</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2085640609024</v>
+        <v>243.2085640609029</v>
       </c>
       <c r="L43" t="n">
-        <v>354.144366320495</v>
+        <v>354.1443663204955</v>
       </c>
       <c r="M43" t="n">
-        <v>381.3303885645899</v>
+        <v>381.3303885645904</v>
       </c>
       <c r="N43" t="n">
-        <v>378.8721711333236</v>
+        <v>378.8721711333241</v>
       </c>
       <c r="O43" t="n">
-        <v>337.3656900571075</v>
+        <v>337.365690057108</v>
       </c>
       <c r="P43" t="n">
-        <v>271.7112803533738</v>
+        <v>271.7112803533743</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.3251727403395</v>
+        <v>118.32517274034</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>343.7296930030112</v>
+        <v>174.6330778309375</v>
       </c>
       <c r="K44" t="n">
-        <v>637.1261558156267</v>
+        <v>312.980743244462</v>
       </c>
       <c r="L44" t="n">
-        <v>565.4318878014304</v>
+        <v>840.3569285743094</v>
       </c>
       <c r="M44" t="n">
         <v>955.0145688368564</v>
       </c>
       <c r="N44" t="n">
-        <v>518.3409830848234</v>
+        <v>955.6879074968076</v>
       </c>
       <c r="O44" t="n">
-        <v>475.9847310511988</v>
+        <v>856.7849123139441</v>
       </c>
       <c r="P44" t="n">
-        <v>693.1911680106016</v>
+        <v>371.392459839119</v>
       </c>
       <c r="Q44" t="n">
-        <v>442.5559209839481</v>
+        <v>230.2409303240434</v>
       </c>
       <c r="R44" t="n">
-        <v>113.3738738616407</v>
+        <v>47.65745398865829</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>86.62232996079857</v>
+        <v>86.62232996079909</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2085640609024</v>
+        <v>243.2085640609029</v>
       </c>
       <c r="L46" t="n">
-        <v>354.144366320495</v>
+        <v>354.1443663204955</v>
       </c>
       <c r="M46" t="n">
-        <v>381.3303885645899</v>
+        <v>381.3303885645904</v>
       </c>
       <c r="N46" t="n">
-        <v>378.8721711333236</v>
+        <v>378.8721711333241</v>
       </c>
       <c r="O46" t="n">
-        <v>337.3656900571075</v>
+        <v>337.365690057108</v>
       </c>
       <c r="P46" t="n">
-        <v>271.7112803533738</v>
+        <v>271.7112803533743</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.3251727403395</v>
+        <v>118.32517274034</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
